--- a/other/feature engineering.xlsx
+++ b/other/feature engineering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="37220" yWindow="0" windowWidth="31740" windowHeight="26960"/>
+    <workbookView xWindow="33300" yWindow="2840" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -615,8 +615,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -982,7 +982,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1022,7 +1022,7 @@
         <v>0.46177839999999998</v>
       </c>
       <c r="C3" s="4">
-        <f>B2-B3</f>
+        <f t="shared" ref="C3:C10" si="0">B2-B3</f>
         <v>1.9340000000001023E-4</v>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>0.46224579999999998</v>
       </c>
       <c r="C4" s="4">
-        <f>B3-B4</f>
+        <f t="shared" si="0"/>
         <v>-4.674000000000067E-4</v>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
         <v>0.46238380000000001</v>
       </c>
       <c r="C5" s="4">
-        <f>B4-B5</f>
+        <f t="shared" si="0"/>
         <v>-1.3800000000002699E-4</v>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
         <v>0.46160479999999998</v>
       </c>
       <c r="C6" s="4">
-        <f>B5-B6</f>
+        <f t="shared" si="0"/>
         <v>7.7900000000002967E-4</v>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
         <v>0.45998260000000002</v>
       </c>
       <c r="C7" s="4">
-        <f>B6-B7</f>
+        <f t="shared" si="0"/>
         <v>1.6221999999999626E-3</v>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
         <v>0.45861560000000001</v>
       </c>
       <c r="C8" s="4">
-        <f>B7-B8</f>
+        <f t="shared" si="0"/>
         <v>1.3670000000000071E-3</v>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
         <v>0.45864899999999997</v>
       </c>
       <c r="C9" s="4">
-        <f>B8-B9</f>
+        <f t="shared" si="0"/>
         <v>-3.3399999999961238E-5</v>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
         <v>0.45925899999999997</v>
       </c>
       <c r="C10" s="5">
-        <f>B9-B10</f>
+        <f t="shared" si="0"/>
         <v>-6.0999999999999943E-4</v>
       </c>
     </row>
@@ -1150,8 +1150,13 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="4">
+        <v>0.45835300000000001</v>
+      </c>
+      <c r="C14" s="4">
+        <f>B13-B14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">

--- a/other/feature engineering.xlsx
+++ b/other/feature engineering.xlsx
@@ -982,7 +982,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1162,8 +1162,13 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="4">
+        <v>0.45880900000000002</v>
+      </c>
+      <c r="C15" s="4">
+        <f>B12-B15</f>
+        <v>-1.01600000000035E-4</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">

--- a/other/feature engineering.xlsx
+++ b/other/feature engineering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33300" yWindow="2840" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="39240" yWindow="2660" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>0.    Factorize</t>
   </si>
@@ -63,15 +63,9 @@
     <t>12.   columns removal idea</t>
   </si>
   <si>
-    <t>13.   Benouilli Naive Bayes</t>
-  </si>
-  <si>
     <t>14.   Imputation for non-systematic variables</t>
   </si>
   <si>
-    <t>15.   Feature selection mRMR</t>
-  </si>
-  <si>
     <t>Feature Engineer</t>
   </si>
   <si>
@@ -79,6 +73,18 @@
   </si>
   <si>
     <t>Score Variance</t>
+  </si>
+  <si>
+    <t>15.   Feature selection mRMR - MaxRel</t>
+  </si>
+  <si>
+    <t>15.   Feature selection mRMR - mRMR</t>
+  </si>
+  <si>
+    <t>13.   Benouilli Naive Bayes - Python</t>
+  </si>
+  <si>
+    <t>13.   Benouilli Naive Bayes - R</t>
   </si>
 </sst>
 </file>
@@ -546,7 +552,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -609,6 +615,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -618,7 +630,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="68">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -657,6 +669,9 @@
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -672,6 +687,9 @@
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -979,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -994,13 +1012,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1172,27 +1190,51 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.45915319999999998</v>
+      </c>
+      <c r="C16" s="4">
+        <f>B12-B16</f>
+        <v>-4.457999999999962E-4</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.45855319999999999</v>
+      </c>
+      <c r="C17" s="4">
+        <f>B12-B17</f>
+        <v>1.5419999999999323E-4</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
+  <conditionalFormatting sqref="C2:C20">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1201,7 +1243,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{75BA90FC-E3DE-C44F-BCDC-78BC33AAA022}</x14:id>
+          <x14:id>{34896E03-1838-7C49-B933-6AA87F421CCD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1212,7 +1254,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{75BA90FC-E3DE-C44F-BCDC-78BC33AAA022}">
+          <x14:cfRule type="dataBar" id="{34896E03-1838-7C49-B933-6AA87F421CCD}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1220,7 +1262,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C18</xm:sqref>
+          <xm:sqref>C2:C20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/other/feature engineering.xlsx
+++ b/other/feature engineering.xlsx
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1223,15 +1223,22 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4">
+        <v>0.48772959999999999</v>
+      </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="4">
+        <v>0.45920820000000001</v>
+      </c>
+      <c r="C20" s="4">
+        <f>B12-B20</f>
+        <v>-5.0080000000002345E-4</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C20">
